--- a/AngularJs-ts-Notes.xlsx
+++ b/AngularJs-ts-Notes.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
   <si>
     <t>TypeScript</t>
   </si>
@@ -1083,6 +1083,27 @@
 &gt; package.json
 &gt; angular.json (build / configuration )
 &gt; </t>
+  </si>
+  <si>
+    <t>npm install --save @ng-bootstrap/ng-bootstrap</t>
+  </si>
+  <si>
+    <t>ng-bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng build --prod --output-path &lt;your_repo_name&gt; --base-href="https://&lt;your_github_user-name&gt;.github.io/&lt;your_repo_name&gt;/"
+</t>
+  </si>
+  <si>
+    <t>ngh --dir=dist/&lt;your_repo_name&gt;</t>
+  </si>
+  <si>
+    <t>ng build --prod --base-href="https://pradganes.github.io/pages/"</t>
+  </si>
+  <si>
+    <t>ng build --prod --output-path docs --base-href PROJECT_NAME, where PROJECT_NAME is the name of your project in GitHub. Make a copy of docs/index.html and name it docs/404.html.
+Commit your changes and push. On the GitHub project page, configure it to publish from the docs folder.
+And that's all you need to do! Now you can see your page at https://USER_NAME.github.io/PROJECT_NAME/.</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1734,6 +1755,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1756,6 +1780,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3613,7 +3640,7 @@
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3664,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
         <v>193</v>
       </c>
@@ -3645,7 +3672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>195</v>
       </c>
@@ -3653,7 +3680,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>197</v>
       </c>
@@ -3704,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3742,10 +3769,10 @@
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -4108,10 +4135,10 @@
       <c r="B35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
@@ -4184,8 +4211,8 @@
       <c r="D40" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
@@ -4200,8 +4227,8 @@
       <c r="D41" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
       <c r="G41" s="55"/>
       <c r="H41" s="46"/>
     </row>
@@ -4351,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4414,10 +4441,10 @@
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
@@ -4443,10 +4470,10 @@
       <c r="C6" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
@@ -4477,20 +4504,20 @@
       <c r="E10" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="58" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="61"/>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="C12" s="58" t="s">
@@ -4518,10 +4545,10 @@
       <c r="C15" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="C16" s="58" t="s">
@@ -4573,8 +4600,34 @@
         <v>204</v>
       </c>
     </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="D21" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="72"/>
+      <c r="F21" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D15:E15"/>
